--- a/A02/MocoPA02Java/dataPa2/excelfiles/status-06.xlsx
+++ b/A02/MocoPA02Java/dataPa2/excelfiles/status-06.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
   <si>
     <t>SystemTime</t>
   </si>
@@ -166,6 +166,14 @@
         <v>1.041322197E9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.465993372E9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.041322197E9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -225,6 +233,29 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.465993372E9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -284,6 +315,29 @@
         <v>1303.0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.465993372E9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37752.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1303.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -389,6 +443,75 @@
         <v>26</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.465993372E9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4767.0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.465993372E9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2327.0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.465993372E9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1303.0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -563,6 +686,144 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.465993372E9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3730.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>262741.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.465993372E9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2440.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>281330.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.465993372E9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1024.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>281330.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.465993372E9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1024.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>280263.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.465993372E9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1303.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>280263.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.465993372E9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1303.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
